--- a/team_specific_matrix/Yale_B.xlsx
+++ b/team_specific_matrix/Yale_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.183206106870229</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="C2">
-        <v>0.5954198473282443</v>
+        <v>0.6138613861386139</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01526717557251908</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1297709923664122</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07633587786259542</v>
+        <v>0.0594059405940594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0119047619047619</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0119047619047619</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6904761904761905</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2142857142857143</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04580152671755725</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02290076335877863</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05343511450381679</v>
+        <v>0.0625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2290076335877863</v>
+        <v>0.234375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007633587786259542</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1603053435114504</v>
+        <v>0.1822916666666667</v>
       </c>
       <c r="R6">
-        <v>0.06870229007633588</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="S6">
-        <v>0.4122137404580153</v>
+        <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.14</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="R7">
-        <v>0.05</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.6</v>
+        <v>0.538961038961039</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06168831168831169</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01298701298701299</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07467532467532467</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1168831168831169</v>
+        <v>0.1088888888888889</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01623376623376623</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1461038961038961</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="R8">
-        <v>0.1038961038961039</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="S8">
-        <v>0.4675324675324675</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0564516129032258</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008064516129032258</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07258064516129033</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08064516129032258</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1370967741935484</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="R9">
-        <v>0.1209677419354839</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="S9">
-        <v>0.5241935483870968</v>
+        <v>0.4941860465116279</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09715994020926756</v>
+        <v>0.09872922776148582</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02242152466367713</v>
+        <v>0.02248289345063539</v>
       </c>
       <c r="E10">
-        <v>0.002989536621823617</v>
+        <v>0.002932551319648094</v>
       </c>
       <c r="F10">
-        <v>0.06726457399103139</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09417040358744394</v>
+        <v>0.09481915933528837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0164424514200299</v>
+        <v>0.02346041055718475</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1898355754857997</v>
+        <v>0.1994134897360704</v>
       </c>
       <c r="R10">
-        <v>0.1106128550074738</v>
+        <v>0.09775171065493646</v>
       </c>
       <c r="S10">
-        <v>0.3991031390134529</v>
+        <v>0.3958944281524927</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00684931506849315</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="G11">
-        <v>0.136986301369863</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06164383561643835</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.1575342465753425</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L11">
-        <v>0.6164383561643836</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02054794520547945</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2065217391304348</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="K12">
-        <v>0.0108695652173913</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L12">
-        <v>0.03260869565217391</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03260869565217391</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28125</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09375</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007633587786259542</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1908396946564886</v>
+        <v>0.1507537688442211</v>
       </c>
       <c r="I15">
-        <v>0.07633587786259542</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="J15">
-        <v>0.4045801526717557</v>
+        <v>0.3819095477386935</v>
       </c>
       <c r="K15">
-        <v>0.05343511450381679</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007633587786259542</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02290076335877863</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2366412213740458</v>
+        <v>0.2663316582914573</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1888888888888889</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="I16">
-        <v>0.07777777777777778</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="K16">
-        <v>0.08888888888888889</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04444444444444445</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07777777777777778</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1888888888888889</v>
+        <v>0.1712328767123288</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01310043668122271</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1834061135371179</v>
+        <v>0.1938202247191011</v>
       </c>
       <c r="I17">
-        <v>0.1353711790393013</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="J17">
-        <v>0.3624454148471616</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="K17">
-        <v>0.07423580786026202</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01310043668122271</v>
+        <v>0.01966292134831461</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09170305676855896</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1266375545851528</v>
+        <v>0.1151685393258427</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03597122302158273</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.237410071942446</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="I18">
-        <v>0.07194244604316546</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J18">
-        <v>0.4100719424460432</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="K18">
-        <v>0.07913669064748201</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02158273381294964</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="N18">
-        <v>0.007194244604316547</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="O18">
-        <v>0.02877697841726619</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1079136690647482</v>
+        <v>0.08994708994708994</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01849568434032059</v>
+        <v>0.01877133105802048</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2441430332922318</v>
+        <v>0.2414675767918089</v>
       </c>
       <c r="I19">
-        <v>0.08138101109741061</v>
+        <v>0.07935153583617748</v>
       </c>
       <c r="J19">
-        <v>0.3378545006165228</v>
+        <v>0.3506825938566553</v>
       </c>
       <c r="K19">
-        <v>0.08877928483353884</v>
+        <v>0.09385665529010238</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02959309494451295</v>
+        <v>0.02815699658703072</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008532423208191126</v>
       </c>
       <c r="O19">
-        <v>0.07398273736128237</v>
+        <v>0.07081911262798635</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.12577065351418</v>
+        <v>0.1160409556313993</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Yale_B.xlsx
+++ b/team_specific_matrix/Yale_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1732673267326733</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C2">
-        <v>0.6138613861386139</v>
+        <v>0.6088888888888889</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02475247524752475</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1287128712871287</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0594059405940594</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01515151515151515</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C3">
-        <v>0.06060606060606061</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02272727272727273</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7196969696969697</v>
+        <v>0.7172413793103448</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1818181818181818</v>
+        <v>0.1931034482758621</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04166666666666666</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02083333333333333</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.234375</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005208333333333333</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1822916666666667</v>
+        <v>0.1893203883495146</v>
       </c>
       <c r="R6">
-        <v>0.06770833333333333</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="S6">
-        <v>0.3854166666666667</v>
+        <v>0.383495145631068</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07792207792207792</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01948051948051948</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="F7">
-        <v>0.06493506493506493</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07142857142857142</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03246753246753246</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1233766233766234</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="S7">
-        <v>0.538961038961039</v>
+        <v>0.524390243902439</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06222222222222222</v>
+        <v>0.07474747474747474</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01333333333333333</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07333333333333333</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1088888888888889</v>
+        <v>0.105050505050505</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1422222222222222</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="R8">
-        <v>0.1022222222222222</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="S8">
-        <v>0.4777777777777778</v>
+        <v>0.4686868686868687</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06976744186046512</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005813953488372093</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0755813953488372</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09883720930232558</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005813953488372093</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1569767441860465</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="R9">
-        <v>0.09302325581395349</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="S9">
-        <v>0.4941860465116279</v>
+        <v>0.481283422459893</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09872922776148582</v>
+        <v>0.1000918273645546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02248289345063539</v>
+        <v>0.02112029384756657</v>
       </c>
       <c r="E10">
-        <v>0.002932551319648094</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="F10">
-        <v>0.06451612903225806</v>
+        <v>0.06519742883379247</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09481915933528837</v>
+        <v>0.09550045913682277</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02346041055718475</v>
+        <v>0.02295684113865932</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1994134897360704</v>
+        <v>0.1992653810835629</v>
       </c>
       <c r="R10">
-        <v>0.09775171065493646</v>
+        <v>0.09733700642791551</v>
       </c>
       <c r="S10">
-        <v>0.3958944281524927</v>
+        <v>0.3957759412304867</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004273504273504274</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="G11">
-        <v>0.1367521367521368</v>
+        <v>0.1422764227642276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K11">
-        <v>0.188034188034188</v>
+        <v>0.1910569105691057</v>
       </c>
       <c r="L11">
-        <v>0.5811965811965812</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7173913043478261</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1956521739130435</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K12">
-        <v>0.01449275362318841</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="L12">
-        <v>0.02898550724637681</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08888888888888889</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01507537688442211</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1507537688442211</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="I15">
-        <v>0.07035175879396985</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="J15">
-        <v>0.3819095477386935</v>
+        <v>0.375</v>
       </c>
       <c r="K15">
-        <v>0.05527638190954774</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005025125628140704</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05527638190954774</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2663316582914573</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00684931506849315</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2054794520547945</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="I16">
-        <v>0.07534246575342465</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="J16">
-        <v>0.3424657534246575</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="K16">
-        <v>0.1164383561643836</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03424657534246575</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04794520547945205</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1712328767123288</v>
+        <v>0.1572327044025157</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01123595505617977</v>
+        <v>0.01038961038961039</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1938202247191011</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="I17">
-        <v>0.1151685393258427</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J17">
-        <v>0.4044943820224719</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.06741573033707865</v>
+        <v>0.07012987012987013</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01966292134831461</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07303370786516854</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1151685393258427</v>
+        <v>0.1168831168831169</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03174603174603174</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2433862433862434</v>
+        <v>0.2463054187192118</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="J18">
-        <v>0.4021164021164021</v>
+        <v>0.3891625615763547</v>
       </c>
       <c r="K18">
-        <v>0.1005291005291005</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02116402116402116</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="N18">
-        <v>0.005291005291005291</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="O18">
-        <v>0.03174603174603174</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08994708994708994</v>
+        <v>0.08866995073891626</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01877133105802048</v>
+        <v>0.01755786113328013</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2414675767918089</v>
+        <v>0.2458100558659218</v>
       </c>
       <c r="I19">
-        <v>0.07935153583617748</v>
+        <v>0.07741420590582601</v>
       </c>
       <c r="J19">
-        <v>0.3506825938566553</v>
+        <v>0.3511572226656026</v>
       </c>
       <c r="K19">
-        <v>0.09385665529010238</v>
+        <v>0.09018355945730247</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02815699658703072</v>
+        <v>0.02873104549082203</v>
       </c>
       <c r="N19">
-        <v>0.0008532423208191126</v>
+        <v>0.0007980845969672786</v>
       </c>
       <c r="O19">
-        <v>0.07081911262798635</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1160409556313993</v>
+        <v>0.1157222665602554</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Yale_B.xlsx
+++ b/team_specific_matrix/Yale_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1733333333333333</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C2">
-        <v>0.6088888888888889</v>
+        <v>0.6059322033898306</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02222222222222222</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1288888888888889</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06666666666666667</v>
+        <v>0.07627118644067797</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01379310344827586</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="C3">
-        <v>0.05517241379310345</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02068965517241379</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7172413793103448</v>
+        <v>0.7086092715231788</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1931034482758621</v>
+        <v>0.1986754966887417</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2368421052631579</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04854368932038835</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01941747572815534</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05825242718446602</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2233009708737864</v>
+        <v>0.2300469483568075</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004854368932038835</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1893203883495146</v>
+        <v>0.1877934272300469</v>
       </c>
       <c r="R6">
-        <v>0.07281553398058252</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="S6">
-        <v>0.383495145631068</v>
+        <v>0.3849765258215962</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07317073170731707</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01829268292682927</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E7">
-        <v>0.006097560975609756</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06707317073170732</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0426829268292683</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1402439024390244</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="R7">
-        <v>0.06707317073170732</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.524390243902439</v>
+        <v>0.5266272189349113</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07474747474747474</v>
+        <v>0.08123791102514506</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01212121212121212</v>
+        <v>0.01160541586073501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07878787878787878</v>
+        <v>0.07736943907156674</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.105050505050505</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01818181818181818</v>
+        <v>0.01740812379110251</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1414141414141414</v>
+        <v>0.137330754352031</v>
       </c>
       <c r="R8">
-        <v>0.101010101010101</v>
+        <v>0.1025145067698259</v>
       </c>
       <c r="S8">
-        <v>0.4686868686868687</v>
+        <v>0.4661508704061896</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06951871657754011</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0106951871657754</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08021390374331551</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09625668449197861</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0106951871657754</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1550802139037433</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="R9">
-        <v>0.09625668449197861</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="S9">
-        <v>0.481283422459893</v>
+        <v>0.4766839378238342</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1000918273645546</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02112029384756657</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E10">
-        <v>0.002754820936639119</v>
+        <v>0.002645502645502645</v>
       </c>
       <c r="F10">
-        <v>0.06519742883379247</v>
+        <v>0.06701940035273368</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09550045913682277</v>
+        <v>0.09611992945326278</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02295684113865932</v>
+        <v>0.02292768959435626</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1992653810835629</v>
+        <v>0.2001763668430335</v>
       </c>
       <c r="R10">
-        <v>0.09733700642791551</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S10">
-        <v>0.3957759412304867</v>
+        <v>0.3959435626102293</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004065040650406504</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="G11">
-        <v>0.1422764227642276</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K11">
-        <v>0.1910569105691057</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.5772357723577236</v>
+        <v>0.5793650793650794</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7083333333333334</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2083333333333333</v>
+        <v>0.2094594594594595</v>
       </c>
       <c r="K12">
-        <v>0.01388888888888889</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04166666666666666</v>
+        <v>0.04054054054054054</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.22</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1712962962962963</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="I15">
-        <v>0.06481481481481481</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3644444444444445</v>
       </c>
       <c r="K15">
-        <v>0.05092592592592592</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004629629629629629</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05092592592592592</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2685185185185185</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006289308176100629</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2075471698113208</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="I16">
-        <v>0.0880503144654088</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="J16">
-        <v>0.3396226415094339</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K16">
-        <v>0.1257861635220126</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03144654088050314</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0440251572327044</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1572327044025157</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01038961038961039</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1948051948051948</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="I17">
-        <v>0.1142857142857143</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.4020100502512563</v>
       </c>
       <c r="K17">
-        <v>0.07012987012987013</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02077922077922078</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07272727272727272</v>
+        <v>0.0728643216080402</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1168831168831169</v>
+        <v>0.1155778894472362</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02955665024630542</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2463054187192118</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="I18">
-        <v>0.09359605911330049</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J18">
-        <v>0.3891625615763547</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K18">
-        <v>0.09359605911330049</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02463054187192118</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N18">
-        <v>0.004926108374384237</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="O18">
-        <v>0.02955665024630542</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08866995073891626</v>
+        <v>0.09047619047619047</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01755786113328013</v>
+        <v>0.01763803680981595</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2458100558659218</v>
+        <v>0.2461656441717791</v>
       </c>
       <c r="I19">
-        <v>0.07741420590582601</v>
+        <v>0.07822085889570553</v>
       </c>
       <c r="J19">
-        <v>0.3511572226656026</v>
+        <v>0.3535276073619632</v>
       </c>
       <c r="K19">
-        <v>0.09018355945730247</v>
+        <v>0.08819018404907976</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02873104549082203</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="N19">
-        <v>0.0007980845969672786</v>
+        <v>0.0007668711656441718</v>
       </c>
       <c r="O19">
-        <v>0.07262569832402235</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157222665602554</v>
+        <v>0.1142638036809816</v>
       </c>
     </row>
   </sheetData>
